--- a/Macro.xlsx
+++ b/Macro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\23fall\7773\第二阶段\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NYU\23fall\7773\kaggle spy data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CBC47C-1181-4E78-B2AF-AD982222285E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8B2901-EF99-4E93-8045-DA32F9E6ABA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2081" zoomScale="84" workbookViewId="0">
-      <selection activeCell="C2108" sqref="C2108"/>
+    <sheetView tabSelected="1" topLeftCell="A2086" zoomScale="84" workbookViewId="0">
+      <selection activeCell="L2101" sqref="L2101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
